--- a/BalanceSheet/OKE_bal.xlsx
+++ b/BalanceSheet/OKE_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-141794000.0</v>
+        <v>513000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>72767000.0</v>
+        <v>371000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-98694000.0</v>
+        <v>460000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-70842000.0</v>
+        <v>515000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>173885000.0</v>
+        <v>386000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>506675000.0</v>
@@ -1995,19 +1995,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>251344000.0</v>
+        <v>930000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>213752000.0</v>
+        <v>719000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>42032000.0</v>
+        <v>624000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>109860000.0</v>
+        <v>755000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-350701000.0</v>
+        <v>742000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1209900000.0</v>
@@ -3292,19 +3292,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>119194000.0</v>
+        <v>815000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>93556000.0</v>
+        <v>670000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>106715000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>42408000.0</v>
+        <v>476000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-55949000.0</v>
+        <v>443000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>536063000.0</v>
@@ -5239,7 +5239,7 @@
         <v>13732000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>12728000000.0</v>
+        <v>12466452000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>11813791000.0</v>
@@ -5366,7 +5366,7 @@
         <v>14264000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>12749000000.0</v>
+        <v>12487410000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>12487100000.0</v>
